--- a/data/trans_orig/P61-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P61-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{517DAD71-62E2-4CDA-B836-A32A05929E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D2C8B6D-0790-4FB9-A53B-CB57BE227A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AC77DADA-ACF3-4402-88D8-DE7C5BA544DE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{ADB52D44-49CF-4F71-BD53-0C3E1C32DBFB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="876">
   <si>
     <t>Población según su situación laboral actual en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -2138,571 +2138,535 @@
     <t>Población según su situación laboral actual en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
   </si>
   <si>
     <t>6,53%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
   </si>
   <si>
     <t>11,09%</t>
   </si>
   <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
+    <t>9,13%</t>
   </si>
   <si>
     <t>7,96%</t>
   </si>
   <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
   </si>
 </sst>
 </file>
@@ -3114,7 +3078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FEAA474-3907-4DE1-A82F-48BDDA862C6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB73DA15-A7AB-4448-9BE7-9B5692630846}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3775,7 +3739,7 @@
         <v>2329</v>
       </c>
       <c r="N14" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>95</v>
@@ -4308,7 +4272,7 @@
         <v>1649</v>
       </c>
       <c r="D25" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>95</v>
@@ -5194,7 +5158,7 @@
         <v>1454</v>
       </c>
       <c r="I42" s="7">
-        <v>1493112</v>
+        <v>1493111</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>253</v>
@@ -5383,7 +5347,7 @@
         <v>1832</v>
       </c>
       <c r="D46" s="7">
-        <v>1913129</v>
+        <v>1913128</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>282</v>
@@ -5434,7 +5398,7 @@
         <v>3214</v>
       </c>
       <c r="D47" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>95</v>
@@ -5449,7 +5413,7 @@
         <v>3297</v>
       </c>
       <c r="I47" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>95</v>
@@ -5464,7 +5428,7 @@
         <v>6511</v>
       </c>
       <c r="N47" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O47" s="7" t="s">
         <v>95</v>
@@ -5497,7 +5461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09136CF0-F5E9-471F-B40C-B1F4D1FC9C67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4956EC2B-BC68-485B-BB1B-D8CE929044CF}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6092,7 +6056,7 @@
         <v>130</v>
       </c>
       <c r="I13" s="7">
-        <v>139977</v>
+        <v>139978</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>350</v>
@@ -6143,7 +6107,7 @@
         <v>1247</v>
       </c>
       <c r="I14" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>95</v>
@@ -7284,7 +7248,7 @@
         <v>850</v>
       </c>
       <c r="N36" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>95</v>
@@ -7880,7 +7844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41C672E-09BF-4B38-866A-2177E6AE5DDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D3ECE1-29C7-4742-9813-358CF0FECCAF}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9667,7 +9631,7 @@
         <v>1027</v>
       </c>
       <c r="N36" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>95</v>
@@ -10263,7 +10227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88424948-C323-41F5-81DD-AAC5EDB7BB03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D7292B-321B-4997-975F-4CA2C7E8EA04}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10486,40 +10450,40 @@
         <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>6092</v>
+        <v>5978</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>317</v>
+        <v>113</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>699</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>700</v>
       </c>
       <c r="H6" s="7">
         <v>99</v>
       </c>
       <c r="I6" s="7">
-        <v>52500</v>
+        <v>48228</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>702</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>703</v>
       </c>
       <c r="M6" s="7">
         <v>104</v>
       </c>
       <c r="N6" s="7">
-        <v>58592</v>
+        <v>54206</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>432</v>
+        <v>703</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>704</v>
@@ -10537,28 +10501,28 @@
         <v>47</v>
       </c>
       <c r="D7" s="7">
-        <v>47162</v>
+        <v>44099</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>132</v>
+        <v>706</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H7" s="7">
         <v>40</v>
       </c>
       <c r="I7" s="7">
-        <v>25825</v>
+        <v>23578</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>708</v>
+        <v>365</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>306</v>
+        <v>444</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>709</v>
@@ -10567,16 +10531,16 @@
         <v>87</v>
       </c>
       <c r="N7" s="7">
-        <v>72987</v>
+        <v>67677</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>710</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>711</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -10588,46 +10552,46 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>2053</v>
+        <v>1990</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>125</v>
+        <v>268</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>713</v>
+        <v>636</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>4177</v>
+        <v>3854</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>469</v>
+        <v>68</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
       </c>
       <c r="N8" s="7">
-        <v>6230</v>
+        <v>5844</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>416</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>15</v>
+        <v>298</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>234</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -10639,7 +10603,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>2042</v>
+        <v>1943</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>125</v>
@@ -10648,37 +10612,37 @@
         <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>715</v>
+        <v>113</v>
       </c>
       <c r="H9" s="7">
         <v>622</v>
       </c>
       <c r="I9" s="7">
-        <v>358950</v>
+        <v>322997</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>717</v>
+        <v>514</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="M9" s="7">
         <v>625</v>
       </c>
       <c r="N9" s="7">
-        <v>360992</v>
+        <v>324939</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -10690,46 +10654,46 @@
         <v>435</v>
       </c>
       <c r="D10" s="7">
-        <v>300412</v>
+        <v>281500</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="H10" s="7">
         <v>455</v>
       </c>
       <c r="I10" s="7">
-        <v>249157</v>
+        <v>224133</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="M10" s="7">
         <v>890</v>
       </c>
       <c r="N10" s="7">
-        <v>549568</v>
+        <v>505632</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -10756,10 +10720,10 @@
         <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>3307</v>
+        <v>2994</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>699</v>
+        <v>727</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
@@ -10771,7 +10735,7 @@
         <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>3307</v>
+        <v>2994</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>376</v>
@@ -10780,7 +10744,7 @@
         <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>315</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -10792,46 +10756,46 @@
         <v>58</v>
       </c>
       <c r="D12" s="7">
-        <v>49675</v>
+        <v>47326</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>732</v>
+        <v>273</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H12" s="7">
         <v>83</v>
       </c>
       <c r="I12" s="7">
-        <v>49322</v>
+        <v>46197</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="M12" s="7">
         <v>141</v>
       </c>
       <c r="N12" s="7">
-        <v>98998</v>
+        <v>93523</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>737</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>738</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -10843,46 +10807,46 @@
         <v>142</v>
       </c>
       <c r="D13" s="7">
-        <v>134198</v>
+        <v>132102</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>403</v>
+        <v>734</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="H13" s="7">
         <v>124</v>
       </c>
       <c r="I13" s="7">
-        <v>92715</v>
+        <v>83528</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="M13" s="7">
         <v>266</v>
       </c>
       <c r="N13" s="7">
-        <v>226912</v>
+        <v>215630</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>118</v>
+        <v>740</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>121</v>
+        <v>741</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>745</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -10894,7 +10858,7 @@
         <v>691</v>
       </c>
       <c r="D14" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>95</v>
@@ -10909,7 +10873,7 @@
         <v>1427</v>
       </c>
       <c r="I14" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>95</v>
@@ -10924,7 +10888,7 @@
         <v>2118</v>
       </c>
       <c r="N14" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>95</v>
@@ -10947,10 +10911,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="7">
-        <v>3035</v>
+        <v>3061</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>568</v>
+        <v>334</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>227</v>
@@ -10962,7 +10926,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="7">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>655</v>
@@ -10971,7 +10935,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>298</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
         <v>4</v>
@@ -10983,7 +10947,7 @@
         <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>227</v>
+        <v>655</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>73</v>
@@ -11022,7 +10986,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -11049,46 +11013,46 @@
         <v>13</v>
       </c>
       <c r="D17" s="7">
-        <v>13024</v>
+        <v>12075</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>48</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>567</v>
+        <v>356</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>394</v>
+        <v>71</v>
       </c>
       <c r="H17" s="7">
         <v>71</v>
       </c>
       <c r="I17" s="7">
-        <v>45369</v>
+        <v>41484</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>747</v>
+        <v>473</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>749</v>
+        <v>29</v>
       </c>
       <c r="M17" s="7">
         <v>84</v>
       </c>
       <c r="N17" s="7">
-        <v>58393</v>
+        <v>53560</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>526</v>
+        <v>361</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>392</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>570</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -11100,46 +11064,46 @@
         <v>99</v>
       </c>
       <c r="D18" s="7">
-        <v>101394</v>
+        <v>94964</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="H18" s="7">
         <v>73</v>
       </c>
       <c r="I18" s="7">
-        <v>47486</v>
+        <v>43936</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>753</v>
+        <v>241</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>107</v>
+        <v>612</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>238</v>
+        <v>747</v>
       </c>
       <c r="M18" s="7">
         <v>172</v>
       </c>
       <c r="N18" s="7">
-        <v>148880</v>
+        <v>138900</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -11151,46 +11115,46 @@
         <v>90</v>
       </c>
       <c r="D19" s="7">
-        <v>213375</v>
+        <v>227896</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>758</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="H19" s="7">
         <v>122</v>
       </c>
       <c r="I19" s="7">
-        <v>207878</v>
+        <v>179838</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="M19" s="7">
         <v>212</v>
       </c>
       <c r="N19" s="7">
-        <v>421252</v>
+        <v>407734</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>249</v>
+        <v>756</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -11202,46 +11166,46 @@
         <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>3281</v>
+        <v>3294</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>14</v>
+        <v>568</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>295</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>268</v>
+        <v>569</v>
       </c>
       <c r="H20" s="7">
         <v>617</v>
       </c>
       <c r="I20" s="7">
-        <v>392998</v>
+        <v>360050</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>456</v>
+        <v>759</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="M20" s="7">
         <v>621</v>
       </c>
       <c r="N20" s="7">
-        <v>396279</v>
+        <v>363344</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>619</v>
+        <v>761</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>766</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -11253,46 +11217,46 @@
         <v>484</v>
       </c>
       <c r="D21" s="7">
-        <v>349795</v>
+        <v>324865</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>770</v>
+        <v>558</v>
       </c>
       <c r="H21" s="7">
         <v>362</v>
       </c>
       <c r="I21" s="7">
-        <v>302227</v>
+        <v>379096</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>771</v>
+        <v>544</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="M21" s="7">
         <v>846</v>
       </c>
       <c r="N21" s="7">
-        <v>652022</v>
+        <v>703961</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>565</v>
+        <v>768</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>775</v>
+        <v>666</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -11304,46 +11268,46 @@
         <v>15</v>
       </c>
       <c r="D22" s="7">
-        <v>29570</v>
+        <v>31417</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>169</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>357</v>
+        <v>551</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="H22" s="7">
         <v>21</v>
       </c>
       <c r="I22" s="7">
-        <v>31458</v>
+        <v>27366</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>417</v>
+        <v>42</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>228</v>
+        <v>770</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
       </c>
       <c r="N22" s="7">
-        <v>61027</v>
+        <v>58783</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>397</v>
+        <v>50</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>778</v>
+        <v>146</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>779</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -11355,46 +11319,46 @@
         <v>188</v>
       </c>
       <c r="D23" s="7">
-        <v>210121</v>
+        <v>207812</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>90</v>
+        <v>772</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="H23" s="7">
         <v>387</v>
       </c>
       <c r="I23" s="7">
-        <v>277726</v>
+        <v>259600</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="M23" s="7">
         <v>575</v>
       </c>
       <c r="N23" s="7">
-        <v>487847</v>
+        <v>467412</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>785</v>
+        <v>639</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -11406,46 +11370,46 @@
         <v>1096</v>
       </c>
       <c r="D24" s="7">
-        <v>1238428</v>
+        <v>1384943</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="H24" s="7">
         <v>1267</v>
       </c>
       <c r="I24" s="7">
-        <v>943996</v>
+        <v>946095</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="M24" s="7">
         <v>2363</v>
       </c>
       <c r="N24" s="7">
-        <v>2182425</v>
+        <v>2331039</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>796</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -11457,7 +11421,7 @@
         <v>1992</v>
       </c>
       <c r="D25" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>95</v>
@@ -11472,7 +11436,7 @@
         <v>2921</v>
       </c>
       <c r="I25" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>95</v>
@@ -11487,7 +11451,7 @@
         <v>4913</v>
       </c>
       <c r="N25" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>95</v>
@@ -11525,31 +11489,31 @@
         <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>1472</v>
+        <v>1291</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>168</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>270</v>
+        <v>110</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>1472</v>
+        <v>1291</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>100</v>
+        <v>293</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>316</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -11612,46 +11576,46 @@
         <v>7</v>
       </c>
       <c r="D28" s="7">
-        <v>7541</v>
+        <v>7417</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>317</v>
+        <v>104</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>416</v>
+        <v>72</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>38</v>
+        <v>788</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
       </c>
       <c r="I28" s="7">
-        <v>10805</v>
+        <v>9758</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>529</v>
+        <v>789</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="M28" s="7">
         <v>24</v>
       </c>
       <c r="N28" s="7">
-        <v>18346</v>
+        <v>17175</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>526</v>
+        <v>207</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>74</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -11663,46 +11627,46 @@
         <v>7</v>
       </c>
       <c r="D29" s="7">
-        <v>5890</v>
+        <v>5717</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
       </c>
       <c r="I29" s="7">
-        <v>9120</v>
+        <v>7946</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>270</v>
+        <v>794</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>363</v>
+        <v>795</v>
       </c>
       <c r="M29" s="7">
         <v>21</v>
       </c>
       <c r="N29" s="7">
-        <v>15009</v>
+        <v>13662</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>523</v>
+        <v>445</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>801</v>
+        <v>267</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -11714,46 +11678,46 @@
         <v>19</v>
       </c>
       <c r="D30" s="7">
-        <v>32854</v>
+        <v>31708</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>443</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>804</v>
+        <v>179</v>
       </c>
       <c r="H30" s="7">
         <v>27</v>
       </c>
       <c r="I30" s="7">
-        <v>37772</v>
+        <v>34176</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="M30" s="7">
         <v>46</v>
       </c>
       <c r="N30" s="7">
-        <v>70626</v>
+        <v>65884</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>624</v>
+        <v>801</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>808</v>
+        <v>438</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -11780,31 +11744,31 @@
         <v>50</v>
       </c>
       <c r="I31" s="7">
-        <v>29366</v>
+        <v>27275</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="M31" s="7">
         <v>50</v>
       </c>
       <c r="N31" s="7">
-        <v>29366</v>
+        <v>27275</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>713</v>
+        <v>529</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -11816,46 +11780,46 @@
         <v>179</v>
       </c>
       <c r="D32" s="7">
-        <v>124426</v>
+        <v>115837</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="H32" s="7">
         <v>163</v>
       </c>
       <c r="I32" s="7">
-        <v>84427</v>
+        <v>77210</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>265</v>
+        <v>813</v>
       </c>
       <c r="M32" s="7">
         <v>342</v>
       </c>
       <c r="N32" s="7">
-        <v>208852</v>
+        <v>193047</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11867,46 +11831,46 @@
         <v>3</v>
       </c>
       <c r="D33" s="7">
-        <v>5538</v>
+        <v>5985</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="H33" s="7">
         <v>2</v>
       </c>
       <c r="I33" s="7">
-        <v>4715</v>
+        <v>4340</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>637</v>
+        <v>236</v>
       </c>
       <c r="M33" s="7">
         <v>5</v>
       </c>
       <c r="N33" s="7">
-        <v>10254</v>
+        <v>10325</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>143</v>
+        <v>593</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>822</v>
+        <v>356</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -11918,46 +11882,46 @@
         <v>29</v>
       </c>
       <c r="D34" s="7">
-        <v>30655</v>
+        <v>29365</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>279</v>
+        <v>711</v>
       </c>
       <c r="H34" s="7">
         <v>76</v>
       </c>
       <c r="I34" s="7">
-        <v>61685</v>
+        <v>58194</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>826</v>
+        <v>149</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>586</v>
+        <v>820</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>827</v>
+        <v>768</v>
       </c>
       <c r="M34" s="7">
         <v>105</v>
       </c>
       <c r="N34" s="7">
-        <v>92341</v>
+        <v>87559</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>829</v>
+        <v>805</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -11969,46 +11933,46 @@
         <v>437</v>
       </c>
       <c r="D35" s="7">
-        <v>466135</v>
+        <v>450594</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="H35" s="7">
         <v>653</v>
       </c>
       <c r="I35" s="7">
-        <v>474525</v>
+        <v>440273</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="M35" s="7">
         <v>1090</v>
       </c>
       <c r="N35" s="7">
-        <v>940661</v>
+        <v>890867</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -12020,7 +11984,7 @@
         <v>681</v>
       </c>
       <c r="D36" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>95</v>
@@ -12035,7 +11999,7 @@
         <v>1004</v>
       </c>
       <c r="I36" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>95</v>
@@ -12050,7 +12014,7 @@
         <v>1685</v>
       </c>
       <c r="N36" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>95</v>
@@ -12073,7 +12037,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="7">
-        <v>3035</v>
+        <v>3061</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>298</v>
@@ -12082,13 +12046,13 @@
         <v>655</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>376</v>
+        <v>296</v>
       </c>
       <c r="H37" s="7">
         <v>3</v>
       </c>
       <c r="I37" s="7">
-        <v>1855</v>
+        <v>1648</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>375</v>
@@ -12097,22 +12061,22 @@
         <v>467</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>14</v>
+        <v>568</v>
       </c>
       <c r="M37" s="7">
         <v>6</v>
       </c>
       <c r="N37" s="7">
-        <v>4890</v>
+        <v>4709</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>227</v>
+        <v>655</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>14</v>
+        <v>568</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -12175,46 +12139,46 @@
         <v>25</v>
       </c>
       <c r="D39" s="7">
-        <v>26657</v>
+        <v>25470</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>593</v>
+        <v>143</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>550</v>
+        <v>72</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>840</v>
+        <v>549</v>
       </c>
       <c r="H39" s="7">
         <v>187</v>
       </c>
       <c r="I39" s="7">
-        <v>108673</v>
+        <v>99470</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>755</v>
+        <v>471</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>841</v>
+        <v>236</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="M39" s="7">
         <v>212</v>
       </c>
       <c r="N39" s="7">
-        <v>135331</v>
+        <v>124940</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>714</v>
+        <v>833</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>107</v>
+        <v>834</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>477</v>
+        <v>835</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -12226,46 +12190,46 @@
         <v>153</v>
       </c>
       <c r="D40" s="7">
-        <v>154445</v>
+        <v>144780</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>79</v>
+        <v>836</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="H40" s="7">
         <v>127</v>
       </c>
       <c r="I40" s="7">
-        <v>82431</v>
+        <v>75460</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>635</v>
+        <v>839</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>845</v>
+        <v>234</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>362</v>
+        <v>790</v>
       </c>
       <c r="M40" s="7">
         <v>280</v>
       </c>
       <c r="N40" s="7">
-        <v>236877</v>
+        <v>220239</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>846</v>
+        <v>206</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -12277,46 +12241,46 @@
         <v>110</v>
       </c>
       <c r="D41" s="7">
-        <v>248282</v>
+        <v>261594</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>849</v>
+        <v>732</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>734</v>
+        <v>842</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>850</v>
+        <v>674</v>
       </c>
       <c r="H41" s="7">
         <v>151</v>
       </c>
       <c r="I41" s="7">
-        <v>249826</v>
+        <v>217869</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>186</v>
+        <v>482</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M41" s="7">
         <v>261</v>
       </c>
       <c r="N41" s="7">
-        <v>498108</v>
+        <v>479463</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>81</v>
+        <v>845</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -12328,46 +12292,46 @@
         <v>7</v>
       </c>
       <c r="D42" s="7">
-        <v>5323</v>
+        <v>5236</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>141</v>
+        <v>14</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>746</v>
+        <v>98</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>567</v>
+        <v>103</v>
       </c>
       <c r="H42" s="7">
         <v>1289</v>
       </c>
       <c r="I42" s="7">
-        <v>781314</v>
+        <v>710321</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="M42" s="7">
         <v>1296</v>
       </c>
       <c r="N42" s="7">
-        <v>786637</v>
+        <v>715558</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>858</v>
+        <v>733</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -12379,46 +12343,46 @@
         <v>1098</v>
       </c>
       <c r="D43" s="7">
-        <v>774632</v>
+        <v>722202</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>860</v>
+        <v>93</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>861</v>
+        <v>670</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="H43" s="7">
         <v>980</v>
       </c>
       <c r="I43" s="7">
-        <v>635810</v>
+        <v>680439</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>368</v>
+        <v>854</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="M43" s="7">
         <v>2078</v>
       </c>
       <c r="N43" s="7">
-        <v>1410443</v>
+        <v>1402641</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -12430,46 +12394,46 @@
         <v>18</v>
       </c>
       <c r="D44" s="7">
-        <v>35108</v>
+        <v>37402</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>392</v>
+        <v>523</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>267</v>
+        <v>794</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>204</v>
+        <v>312</v>
       </c>
       <c r="H44" s="7">
         <v>25</v>
       </c>
       <c r="I44" s="7">
-        <v>39480</v>
+        <v>34700</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>392</v>
+        <v>859</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>252</v>
+        <v>173</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>234</v>
+        <v>613</v>
       </c>
       <c r="M44" s="7">
         <v>43</v>
       </c>
       <c r="N44" s="7">
-        <v>74588</v>
+        <v>72102</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>392</v>
+        <v>314</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>868</v>
+        <v>531</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>869</v>
+        <v>834</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -12481,46 +12445,46 @@
         <v>275</v>
       </c>
       <c r="D45" s="7">
-        <v>290451</v>
+        <v>284504</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>870</v>
+        <v>434</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="H45" s="7">
         <v>546</v>
       </c>
       <c r="I45" s="7">
-        <v>388734</v>
+        <v>363991</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>873</v>
+        <v>187</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="M45" s="7">
         <v>821</v>
       </c>
       <c r="N45" s="7">
-        <v>679185</v>
+        <v>648494</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>876</v>
+        <v>864</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>878</v>
+        <v>866</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -12532,46 +12496,46 @@
         <v>1675</v>
       </c>
       <c r="D46" s="7">
-        <v>1838760</v>
+        <v>1967640</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>879</v>
+        <v>867</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>880</v>
+        <v>868</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>881</v>
+        <v>869</v>
       </c>
       <c r="H46" s="7">
         <v>2044</v>
       </c>
       <c r="I46" s="7">
-        <v>1511237</v>
+        <v>1469896</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>882</v>
+        <v>870</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>883</v>
+        <v>871</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>884</v>
+        <v>872</v>
       </c>
       <c r="M46" s="7">
         <v>3719</v>
       </c>
       <c r="N46" s="7">
-        <v>3349997</v>
+        <v>3437536</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -12583,7 +12547,7 @@
         <v>3364</v>
       </c>
       <c r="D47" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>95</v>
@@ -12598,7 +12562,7 @@
         <v>5352</v>
       </c>
       <c r="I47" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>95</v>
@@ -12613,7 +12577,7 @@
         <v>8716</v>
       </c>
       <c r="N47" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O47" s="7" t="s">
         <v>95</v>
